--- a/paper/papers/final/Top 50 vulnerabilities by year - cvedetails.xlsx
+++ b/paper/papers/final/Top 50 vulnerabilities by year - cvedetails.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryfbp\Git\NYU-CS-GY-6813\paper\papers\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A3CB9A-C495-4333-A2DC-E02B85ACA340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42D812-0B95-46E6-A625-4C988A988798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="sum(vuln) by year" sheetId="5" r:id="rId3"/>
-    <sheet name="sum(vuln) by year and vendor-MS" sheetId="7" r:id="rId4"/>
-    <sheet name="sum(vuln) by year and vendor-AP" sheetId="6" r:id="rId5"/>
-    <sheet name="sum(vuln) by year and vendor" sheetId="3" r:id="rId6"/>
-    <sheet name="sum(vuln) by year and product" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="sum(vuln) by year and vendor-MS" sheetId="7" r:id="rId5"/>
+    <sheet name="sum(vuln) by year and vendor-AP" sheetId="6" r:id="rId6"/>
+    <sheet name="sum(vuln) by year and vendor" sheetId="3" r:id="rId7"/>
+    <sheet name="sum(vuln) by year and product" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId8"/>
-    <pivotCache cacheId="29" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="216">
   <si>
     <t>Copy-pasted from website’s chart into Notepad++ and then modified slightly by deleting first column, copy-pasting back into LibreOffice, and then adding a year column.</t>
   </si>
@@ -935,6 +936,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -950,6 +992,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -1031,6 +1114,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -1234,6 +1358,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
@@ -1625,6 +1790,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
@@ -2102,6 +2308,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
@@ -2315,6 +2562,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="27"/>
@@ -2396,6 +2684,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="29"/>
@@ -2675,6 +3004,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="34"/>
@@ -2888,6 +3258,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="38"/>
@@ -4852,7 +5263,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5728,6 +6139,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6295,6 +6747,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -11339,15 +11829,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5042</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>113179</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19613,7 +20103,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{989C77CC-1F8C-41D2-B56F-43840FBD0FB6}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{989C77CC-1F8C-41D2-B56F-43840FBD0FB6}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="7">
   <location ref="A126:C139" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -20303,7 +20793,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{565E04EB-EB21-415A-9805-238BAD312243}" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{565E04EB-EB21-415A-9805-238BAD312243}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="7">
   <location ref="A85:C98" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -20993,7 +21483,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1746B8E3-5B7A-4D09-AB13-F249BE9BA90E}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1746B8E3-5B7A-4D09-AB13-F249BE9BA90E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -21098,7 +21588,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD281495-BDC1-45E5-8FFC-DAFEC2A4D521}" name="PivotTable5" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD281495-BDC1-45E5-8FFC-DAFEC2A4D521}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="24">
   <location ref="A1:C14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -22604,7 +23094,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8563F41C-44F8-4D44-B28F-58F6A1B96C48}" name="PivotTable4" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8563F41C-44F8-4D44-B28F-58F6A1B96C48}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="24">
   <location ref="A1:C14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -24110,7 +24600,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="DataPilot2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="22">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="DataPilot2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="31">
   <location ref="A1:L14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -25607,7 +26097,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="DataPilot1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0">
   <location ref="A1:C498" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -27322,6 +27812,20 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2D20527-456B-4E23-9832-BB969AAD1023}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{F2D20527-456B-4E23-9832-BB969AAD1023}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1B954638-9022-4A55-ADD3-1824148ADA80}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{E3D584A3-7B13-4436-ABDD-4D7EBD2036AD}" name="Product Name"/>
+    <tableColumn id="3" xr3:uid="{3839FF62-2E67-4EEE-87FC-102CE01E9814}" name="Vendor Name"/>
+    <tableColumn id="4" xr3:uid="{83C9F667-3D99-4390-B9C7-24B31878FC8D}" name="Product Type"/>
+    <tableColumn id="5" xr3:uid="{B8187AA0-A7A4-4804-9BB8-80518ED5E9A5}" name="Number of Vulnerabilities"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27623,8 +28127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R111" sqref="R111"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27986,8 +28490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ551"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38718,11 +39222,273 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8EAF10-1153-4A05-B17B-5C477DAA8F5E}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2021</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DD0F49-48DF-4B96-84FC-988771697901}">
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38890,7 +39656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0907F899-3C9E-499F-A7F1-BC1A2EEAD1CC}">
   <dimension ref="A1:C132"/>
   <sheetViews>
@@ -39063,7 +39829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L132"/>
   <sheetViews>
@@ -39574,7 +40340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C498"/>
   <sheetViews>

--- a/paper/papers/final/Top 50 vulnerabilities by year - cvedetails.xlsx
+++ b/paper/papers/final/Top 50 vulnerabilities by year - cvedetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henryfbp\Git\NYU-CS-GY-6813\paper\papers\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furry\Git\NYU-CS-GY-6813\paper\papers\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42D812-0B95-46E6-A625-4C988A988798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980DAF20-BC80-44EC-B2E7-C434CF777550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="685" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -5995,7 +5995,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6149,13 +6149,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -6356,7 +6354,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6414,7 +6412,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6446,7 +6444,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6488,7 +6486,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6543,7 +6541,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -6603,12 +6601,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6757,13 +6752,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -6961,7 +6954,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -7016,7 +7009,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -7045,7 +7038,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -7084,7 +7077,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -7136,7 +7129,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+        <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -21588,7 +21581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD281495-BDC1-45E5-8FFC-DAFEC2A4D521}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD281495-BDC1-45E5-8FFC-DAFEC2A4D521}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="30">
   <location ref="A1:C14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -23094,7 +23087,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8563F41C-44F8-4D44-B28F-58F6A1B96C48}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8563F41C-44F8-4D44-B28F-58F6A1B96C48}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" updatedVersion="7" itemPrintTitles="1" indent="0" compact="0" compactData="0" chartFormat="26">
   <location ref="A1:C14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -28127,7 +28120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
@@ -39225,8 +39218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8EAF10-1153-4A05-B17B-5C477DAA8F5E}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
